--- a/数据和处理/处理后数据.xlsx
+++ b/数据和处理/处理后数据.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
   <si>
     <t>数据类别</t>
   </si>
@@ -155,10 +155,21 @@
     <t>图1角度</t>
   </si>
   <si>
-    <t>髋关节角度Ɵ</t>
-  </si>
-  <si>
-    <t>缺失值填充</t>
+    <r>
+      <t>髋关节角度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ɵ</t>
+    </r>
+  </si>
+  <si>
+    <t>缺失值填充（参考工程经验）</t>
   </si>
   <si>
     <t>图5坐标</t>
@@ -167,6 +178,9 @@
     <t>Y轴负向极限</t>
   </si>
   <si>
+    <t>缺失值填充（参考场地）</t>
+  </si>
+  <si>
     <t>电机参数</t>
   </si>
   <si>
@@ -176,15 +190,21 @@
     <t>N·m</t>
   </si>
   <si>
-    <t>参数补充（参考工程经验）</t>
+    <t>参数补充（更新后官方参数）</t>
   </si>
   <si>
     <t>电机最大转速</t>
   </si>
   <si>
+    <t>rpm</t>
+  </si>
+  <si>
     <t>rad/s</t>
   </si>
   <si>
+    <t>参数补充+单位转换（rpm→rad/s）</t>
+  </si>
+  <si>
     <t>刚体参数</t>
   </si>
   <si>
@@ -194,7 +214,13 @@
     <t>kg</t>
   </si>
   <si>
+    <t>右臂质量</t>
+  </si>
+  <si>
     <t>左腿质量</t>
+  </si>
+  <si>
+    <t>右腿质量</t>
   </si>
 </sst>
 </file>
@@ -207,13 +233,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -359,6 +391,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -554,12 +592,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -680,138 +733,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,527 +1406,573 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="20.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="20.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="26.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="36.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="20.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="25.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="23.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="21.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="41.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1.0297</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>1.0297</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>55.2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.9634</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>3672000</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>67.2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>67.2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>338</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.338</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>1.0472</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.5236</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>300</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>62.4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.0624</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>167.2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>0.1672</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>64.5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.0645</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>120.9</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>0.1209</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>0.6981</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>-7.5</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>-7.5</v>
       </c>
-      <c r="G18" t="s">
-        <v>43</v>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="C19" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D19" s="2">
+        <v>120</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2">
+        <v>120</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2617.9939</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3.82</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3.82</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3.82</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3.82</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9.98</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="2">
+        <v>9.98</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9.98</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="2">
+        <v>9.98</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/数据和处理/处理后数据.xlsx
+++ b/数据和处理/处理后数据.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="25600" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="处理后数据" sheetId="1" r:id="rId1"/>
+    <sheet name="Processed_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Fast_Index" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
   <si>
     <t>数据类别</t>
   </si>
@@ -156,6 +157,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>髋关节角度</t>
     </r>
     <r>
@@ -222,6 +229,161 @@
   <si>
     <t>右腿质量</t>
   </si>
+  <si>
+    <t>建模场景</t>
+  </si>
+  <si>
+    <t>原始数值 + 单位</t>
+  </si>
+  <si>
+    <t>转换后数值 + 单位</t>
+  </si>
+  <si>
+    <t>小问 1：左手端点坐标计算</t>
+  </si>
+  <si>
+    <t>问题 1 动作</t>
+  </si>
+  <si>
+    <t>338.0mm</t>
+  </si>
+  <si>
+    <t>0.3380m</t>
+  </si>
+  <si>
+    <t>60.0°</t>
+  </si>
+  <si>
+    <t>1.0472rad</t>
+  </si>
+  <si>
+    <t>30.0°</t>
+  </si>
+  <si>
+    <t>0.5236rad</t>
+  </si>
+  <si>
+    <t>小问 1：电机安全验证</t>
+  </si>
+  <si>
+    <t>120.0N·m</t>
+  </si>
+  <si>
+    <t>120.0000N·m</t>
+  </si>
+  <si>
+    <t>25000rpm</t>
+  </si>
+  <si>
+    <t>2617.9939rad/s</t>
+  </si>
+  <si>
+    <t>小问 2：轨迹规划与时间 T</t>
+  </si>
+  <si>
+    <t>问题 2 动作</t>
+  </si>
+  <si>
+    <t>2.0m/s</t>
+  </si>
+  <si>
+    <t>2.0000m/s</t>
+  </si>
+  <si>
+    <t>问题 3 动作</t>
+  </si>
+  <si>
+    <t>300.0mm</t>
+  </si>
+  <si>
+    <t>0.3000m</t>
+  </si>
+  <si>
+    <t>小问 3：多体动力学建模</t>
+  </si>
+  <si>
+    <t>3.82kg</t>
+  </si>
+  <si>
+    <t>3.8200kg</t>
+  </si>
+  <si>
+    <t>9.98kg</t>
+  </si>
+  <si>
+    <t>9.9800kg</t>
+  </si>
+  <si>
+    <t>小问 3：多关节协同</t>
+  </si>
+  <si>
+    <t>4.0s</t>
+  </si>
+  <si>
+    <t>4.0000s</t>
+  </si>
+  <si>
+    <t>小问 4：能耗计算</t>
+  </si>
+  <si>
+    <t>15.0Ah</t>
+  </si>
+  <si>
+    <t>3672000.0000J</t>
+  </si>
+  <si>
+    <t>67.2V</t>
+  </si>
+  <si>
+    <t>67.2000V</t>
+  </si>
+  <si>
+    <t>所有小问：边界约束</t>
+  </si>
+  <si>
+    <t>图 5 坐标</t>
+  </si>
+  <si>
+    <t>Y 轴负向极限</t>
+  </si>
+  <si>
+    <t>-7.5m</t>
+  </si>
+  <si>
+    <t>-7.5000m</t>
+  </si>
+  <si>
+    <t>小问 3：关节角度基准</t>
+  </si>
+  <si>
+    <t>图 1 角度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>髋关节角度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ɵ</t>
+    </r>
+  </si>
+  <si>
+    <t>40.0°</t>
+  </si>
+  <si>
+    <t>0.6981rad</t>
+  </si>
 </sst>
 </file>
 
@@ -233,13 +395,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -397,6 +565,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -733,144 +907,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1408,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1424,555 +1601,865 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.0297</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.0297</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>55.2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.9634</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3672000</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>338</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.338</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.0472</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.5236</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>300</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>62.4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.0624</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3">
+        <v>167.2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1672</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3">
+        <v>64.5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.0645</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3">
+        <v>120.9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1209</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.6981</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-7.5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7.5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3">
+        <v>120</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="3">
+        <v>120</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2617.9939</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3">
+        <v>9.98</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="3">
+        <v>9.98</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9.98</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="3">
+        <v>9.98</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="15.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="25.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="60" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" ht="60" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" ht="60" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" ht="60" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" ht="60" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="60" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" ht="60" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" ht="60" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" ht="60" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" ht="60" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.0297</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>59</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.0297</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>55.2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.9634</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" ht="60" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" ht="45" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3672000</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" ht="45" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>67.2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>67.2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2">
-        <v>338</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.338</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>60</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.0472</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.5236</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2">
-        <v>300</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2">
-        <v>62.4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.0624</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2">
-        <v>167.2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.1672</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2">
-        <v>64.5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.0645</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2">
-        <v>120.9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.1209</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.6981</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2">
-        <v>120</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="2">
-        <v>120</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2">
-        <v>25000</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2617.9939</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3.82</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3.82</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3.82</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3.82</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="2">
-        <v>9.98</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="2">
-        <v>9.98</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2">
-        <v>9.98</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="2">
-        <v>9.98</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>50</v>
+      <c r="D15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" ht="45" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" ht="60" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
